--- a/testdata/Sample.xlsx
+++ b/testdata/Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>product parent</t>
   </si>
@@ -148,16 +148,35 @@
   </si>
   <si>
     <t>Apple iPod shuffle' Sample" 2GB Pink</t>
+  </si>
+  <si>
+    <t>category 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,13 +199,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,15 +551,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,85 +570,88 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -623,57 +661,58 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>343.2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>388</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.01</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
